--- a/GenerateData/Document/Requirement/sprint01/ticket/Task 1102 - Edit Location Button Dynamic.xlsx
+++ b/GenerateData/Document/Requirement/sprint01/ticket/Task 1102 - Edit Location Button Dynamic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Requirement\sprint01\ticket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1477778-6F48-435C-A3E4-F8D6E77E9FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63042463-5509-43D4-9D61-47138C177E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,11 +682,177 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48538</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Hình ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75613EF6-21C4-40C4-8636-3B345627518D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="4200525"/>
+          <a:ext cx="6544588" cy="4696480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71764</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Đường kết nối: Mũi tên Gấp khúc 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF4EAC0-9895-4864-80C6-AD6B3EDBAA4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3095624" y="1586103"/>
+          <a:ext cx="161925" cy="4962661"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -705882"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Hình chữ nhật: Góc Tròn 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C6CD7-82EE-48E6-BEF6-76F0FBD98E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="5105400"/>
+          <a:ext cx="457200" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
